--- a/2019/Adams/Adams Report.xlsx
+++ b/2019/Adams/Adams Report.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Yearly Reports\2018\Adams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Adams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6F13C-B086-4EBC-B1B9-A77B572E7170}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB469E5-053B-4257-A4E3-E12CAB673B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId3"/>
+    <sheet name="2019" sheetId="4" r:id="rId3"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="60">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -186,6 +193,27 @@
   </si>
   <si>
     <t>Fair</t>
+  </si>
+  <si>
+    <t>Fishing Report 2019</t>
+  </si>
+  <si>
+    <t>10 Rainbow</t>
+  </si>
+  <si>
+    <t>8 Rainbow 1 Wiper</t>
+  </si>
+  <si>
+    <t>48 Rainbow</t>
+  </si>
+  <si>
+    <t>1 Bluegill 58 Rainbow</t>
+  </si>
+  <si>
+    <t>12 Rainbow</t>
+  </si>
+  <si>
+    <t>28 Rainbow 1 Wiper</t>
   </si>
 </sst>
 </file>
@@ -333,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,6 +415,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,6 +427,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -644,13 +680,13 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Bluegill</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Brook</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Brown</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bluegill</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Rainbow</c:v>
@@ -668,19 +704,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>47</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>308</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,13 +1234,13 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Bluegill</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Brook</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Brown</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bluegill</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Rainbow</c:v>
@@ -1222,19 +1258,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2583979328165375</c:v>
+                  <c:v>7.9470198675496695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2351421188630489</c:v>
+                  <c:v>0.16556291390728478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.144702842377262</c:v>
+                  <c:v>4.6357615894039732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.586563307493535</c:v>
+                  <c:v>86.423841059602651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77519379844961245</c:v>
+                  <c:v>0.82781456953642385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2842,22 +2878,22 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2923,12 +2959,12 @@
       <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3292,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3324,23 +3360,23 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3391,13 +3427,13 @@
       <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>1</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>6</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>9</v>
       </c>
       <c r="L4" s="8">
@@ -3421,12 +3457,12 @@
       <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3753,40 +3789,432 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BE291A-4AC8-4F55-A56D-82876014ACC8}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>214</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="18">
+        <f>SUM(G4/$E16*100)</f>
+        <v>0.46082949308755761</v>
+      </c>
+      <c r="H7" s="18">
+        <f>SUM(H4/$E16*100)</f>
+        <v>98.617511520737324</v>
+      </c>
+      <c r="I7" s="18">
+        <f>SUM(I4/$E16*100)</f>
+        <v>0.92165898617511521</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8">
+        <v>48</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8">
+        <v>59</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>14</v>
+      </c>
+      <c r="E10" s="8">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8">
+        <v>29</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="10">
+        <f>SUM(E4:E15)</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="12">
+        <f>AVERAGE(E4:E15)</f>
+        <v>18.083333333333332</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1CA989-3A01-4014-AE07-8387268A40B0}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>25</v>
@@ -3797,44 +4225,44 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
+        <f>SUM('2017'!G4+'2018'!K4+'2019'!G4)</f>
+        <v>48</v>
+      </c>
+      <c r="B3" s="8">
         <f>SUM('2018'!I4)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C3" s="8">
         <f>SUM('2017'!F4+'2018'!J4)</f>
         <v>28</v>
       </c>
-      <c r="C3" s="8">
-        <f>SUM('2017'!G4+'2018'!K4)</f>
-        <v>47</v>
-      </c>
       <c r="D3" s="8">
-        <f>SUM('2017'!H4+'2018'!L4)</f>
-        <v>308</v>
+        <f>SUM('2017'!H4+'2018'!L4+'2019'!H4)</f>
+        <v>522</v>
       </c>
       <c r="E3" s="8">
-        <f>SUM('2017'!I4)</f>
-        <v>3</v>
+        <f>SUM('2017'!I4+'2019'!I4)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>25</v>
@@ -3846,23 +4274,23 @@
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f>SUM(A3/$B$8*100)</f>
-        <v>0.2583979328165375</v>
+        <v>7.9470198675496695</v>
       </c>
       <c r="B6" s="18">
-        <f t="shared" ref="B6:C6" si="0">SUM(B3/$B$8*100)</f>
-        <v>7.2351421188630489</v>
+        <f>SUM(B3/$B$8*100)</f>
+        <v>0.16556291390728478</v>
       </c>
       <c r="C6" s="18">
-        <f t="shared" si="0"/>
-        <v>12.144702842377262</v>
+        <f>SUM(C3/$B$8*100)</f>
+        <v>4.6357615894039732</v>
       </c>
       <c r="D6" s="18">
         <f>SUM(D3/$B$8*100)</f>
-        <v>79.586563307493535</v>
+        <v>86.423841059602651</v>
       </c>
       <c r="E6" s="18">
         <f>SUM(E3/$B$8*100)</f>
-        <v>0.77519379844961245</v>
+        <v>0.82781456953642385</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3870,8 +4298,8 @@
         <v>21</v>
       </c>
       <c r="B8" s="15">
-        <f>SUM('2017'!D25+'2018'!G20)</f>
-        <v>387</v>
+        <f>SUM('2017'!D25+'2018'!G20+'2019'!E16)</f>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3879,8 +4307,8 @@
         <v>22</v>
       </c>
       <c r="B9" s="15">
-        <f>SUM('2017'!D26+'2018'!G21)</f>
-        <v>38</v>
+        <f>SUM('2017'!D26+'2018'!G21+'2019'!E17)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3889,7 +4317,7 @@
       </c>
       <c r="B10" s="17">
         <f>SUM(B8/B9)</f>
-        <v>10.184210526315789</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">

--- a/2019/Adams/Adams Report.xlsx
+++ b/2019/Adams/Adams Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Adams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB469E5-053B-4257-A4E3-E12CAB673B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBD516A-2381-47D7-BAA1-6A7FFDC19BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="60">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Fair</t>
   </si>
   <si>
-    <t>Fishing Report 2019</t>
-  </si>
-  <si>
     <t>10 Rainbow</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>28 Rainbow 1 Wiper</t>
+  </si>
+  <si>
+    <t>Fishing Report 2019 Adams</t>
   </si>
 </sst>
 </file>
@@ -415,6 +415,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,11 +432,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -2878,22 +2878,22 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2959,12 +2959,12 @@
       <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3328,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:L7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3360,23 +3360,23 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3457,12 +3457,12 @@
       <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3790,15 +3790,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BE291A-4AC8-4F55-A56D-82876014ACC8}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -3811,7 +3811,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2"/>
       <c r="G1" s="3"/>
@@ -3820,25 +3820,25 @@
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3866,7 +3866,7 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8">
@@ -3894,7 +3894,7 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="8">
@@ -3908,17 +3908,17 @@
       <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8"/>
@@ -3930,7 +3930,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>28</v>
@@ -3945,7 +3945,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="8"/>
@@ -3957,7 +3957,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="18">
         <f>SUM(G4/$E16*100)</f>
@@ -3972,12 +3972,12 @@
         <v>0.92165898617511521</v>
       </c>
       <c r="J7" s="18"/>
-      <c r="K7" s="29"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="8"/>
@@ -3989,7 +3989,7 @@
         <v>48</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -3998,7 +3998,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
@@ -4010,7 +4010,7 @@
         <v>59</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4019,7 +4019,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="8"/>
@@ -4040,7 +4040,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="8"/>
@@ -4061,7 +4061,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8"/>
@@ -4073,7 +4073,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -4082,7 +4082,7 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
@@ -4103,7 +4103,7 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="8"/>
@@ -4115,7 +4115,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4124,7 +4124,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="8"/>
@@ -4168,6 +4168,14 @@
       <c r="E18" s="12">
         <f>AVERAGE(E4:E15)</f>
         <v>18.083333333333332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4198,13 +4206,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -4246,13 +4254,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">

--- a/2019/Adams/Adams Report.xlsx
+++ b/2019/Adams/Adams Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Adams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBD516A-2381-47D7-BAA1-6A7FFDC19BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3560CE5-8DD9-4481-9E3F-2D278C509433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -3792,7 +3792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BE291A-4AC8-4F55-A56D-82876014ACC8}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -4192,7 +4192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1CA989-3A01-4014-AE07-8387268A40B0}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
